--- a/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:H20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,25 +502,35 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004265</t>
+          <t>519133</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>金鹰民丰回报定期开放混合</t>
+          <t>海富通改革驱动灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>26.33</t>
+          <t>55.61</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>3</v>
       </c>
     </row>
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>006972</t>
+          <t>003853</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
+          <t>金鹰信息产业股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>36.57</t>
+          <t>17.40</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>2</v>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7639</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -548,26 +578,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007735</t>
+          <t>519003</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
+          <t>海富通收益增长混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>36.57</t>
+          <t>17.81</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>2</v>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4274</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>519003</t>
+          <t>005669</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>海富通收益增长混合</t>
+          <t>前海开源公用事业行业股票</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>78.55</t>
+          <t>4.84</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>4</v>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -604,26 +654,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>003853</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票A</t>
+          <t>华夏兴和混合</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>86.07</t>
+          <t>7.71</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>6</v>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="7">
@@ -632,26 +692,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>005885</t>
+          <t>006972</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票C</t>
+          <t>金鹰民安回报一年定期开放混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>86.07</t>
+          <t>14.65</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>6</v>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3677</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -670,15 +740,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>95.05</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
+      <c r="F8" t="inlineStr">
         <is>
           <t>7.53</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
         <v>2</v>
       </c>
     </row>
@@ -688,26 +768,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>005669</t>
+          <t>005885</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>前海开源公用事业行业股票</t>
+          <t>金鹰信息产业股票C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>94.46</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="10">
@@ -716,26 +806,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>519918</t>
+          <t>010130</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华夏兴和混合</t>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>90.60</t>
+          <t>10.29</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>10</v>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="11">
@@ -744,26 +844,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>000689</t>
+          <t>005823</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>前海开源新经济灵活配置混合</t>
+          <t>泰康颐享混合A</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>94.32</t>
+          <t>7.34</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>2</v>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="12">
@@ -772,25 +882,35 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>002934</t>
+          <t>004265</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>泰康恒泰回报灵活配置混合A</t>
+          <t>金鹰民丰回报定期开放混合</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>29.88</t>
+          <t>6.65</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
         <v>3</v>
       </c>
     </row>
@@ -800,25 +920,35 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>002935</t>
+          <t>002934</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>泰康恒泰回报灵活配置混合C</t>
+          <t>泰康恒泰回报灵活配置混合A</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
           <t>29.88</t>
         </is>
       </c>
-      <c r="E13" t="inlineStr">
+      <c r="F13" t="inlineStr">
         <is>
           <t>1.91</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
         <v>3</v>
       </c>
     </row>
@@ -828,26 +958,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>005823</t>
+          <t>000689</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>泰康颐享混合A</t>
+          <t>前海开源新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>29.84</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F14" t="n">
-        <v>3</v>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="15">
@@ -856,25 +996,35 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>005824</t>
+          <t>002935</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>泰康颐享混合C</t>
+          <t>泰康恒泰回报灵活配置混合C</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>29.84</t>
+          <t>3.33</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="F15" t="n">
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
         <v>3</v>
       </c>
     </row>
@@ -884,26 +1034,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>005855</t>
+          <t>005824</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
+          <t>泰康颐享混合C</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>3.19</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F16" t="n">
-        <v>10</v>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="17">
@@ -912,26 +1072,36 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>005856</t>
+          <t>007735</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
+          <t>金鹰民安回报一年定期开放混合C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>92.93</t>
+          <t>1.41</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="F17" t="n">
-        <v>10</v>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="18">
@@ -940,26 +1110,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>519133</t>
+          <t>005855</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>海富通改革驱动灵活配置混合</t>
+          <t>中科沃土沃瑞灵活配置混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>91.82</t>
+          <t>0.63</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="F18" t="n">
-        <v>3</v>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="19">
@@ -968,26 +1148,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>010130</t>
+          <t>005856</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+          <t>中科沃土沃瑞灵活配置混合C</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>24.81</t>
+          <t>0.15</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="F19" t="n">
-        <v>5</v>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="20">
@@ -1006,15 +1196,23 @@
       </c>
       <c r="D20" t="inlineStr">
         <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
           <t>24.81</t>
         </is>
       </c>
-      <c r="E20" t="inlineStr">
+      <c r="F20" t="inlineStr">
         <is>
           <t>1.19</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
         <v>5</v>
       </c>
     </row>
@@ -1029,7 +1227,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1050,15 +1248,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -1080,15 +1288,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>26.57</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>91.43</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>3.29</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8742</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>9</v>
       </c>
     </row>
@@ -1098,26 +1316,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>000689</t>
+          <t>003853</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源新经济灵活配置混合</t>
+          <t>金鹰信息产业股票A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>82.22</t>
+          <t>15.41</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>9.57</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>1</v>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6534</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1126,26 +1354,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>010874</t>
+          <t>005669</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>泰康品质生活混合A</t>
+          <t>前海开源公用事业行业股票</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>3.54</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>8</v>
+          <t>81.72</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>9.75</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3452</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="5">
@@ -1154,26 +1392,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>010875</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>泰康品质生活混合C</t>
+          <t>华夏兴和混合</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>84.84</t>
+          <t>5.41</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>3.66</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>90.04</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3300</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="6">
@@ -1182,26 +1430,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>001278</t>
+          <t>005885</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合A</t>
+          <t>金鹰信息产业股票C</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>37.28</t>
+          <t>4.01</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F6" t="n">
-        <v>10</v>
+          <t>88.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.1700</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -1210,26 +1468,36 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>002360</t>
+          <t>010874</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>前海开源清洁能源主题精选混合C</t>
+          <t>泰康品质生活混合A</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>37.28</t>
+          <t>3.81</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>1.55</t>
-        </is>
-      </c>
-      <c r="F7" t="n">
-        <v>10</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.1394</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="8">
@@ -1238,26 +1506,36 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>519918</t>
+          <t>001278</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>华夏兴和混合</t>
+          <t>前海开源清洁能源主题精选混合A</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>90.04</t>
+          <t>5.89</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>6.10</t>
-        </is>
-      </c>
-      <c r="F8" t="n">
-        <v>6</v>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0913</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="9">
@@ -1266,26 +1544,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>770001</t>
+          <t>000689</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>德邦优化灵活配置混合</t>
+          <t>前海开源新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>93.06</t>
+          <t>0.93</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>3.44</t>
-        </is>
-      </c>
-      <c r="F9" t="n">
-        <v>3</v>
+          <t>82.22</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>9.57</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0890</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
       </c>
     </row>
     <row r="10">
@@ -1294,26 +1582,36 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>005669</t>
+          <t>770001</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>前海开源公用事业行业股票</t>
+          <t>德邦优化灵活配置混合</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>81.72</t>
+          <t>1.62</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>9.75</t>
-        </is>
-      </c>
-      <c r="F10" t="n">
-        <v>1</v>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="11">
@@ -1322,26 +1620,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>003853</t>
+          <t>010875</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票A</t>
+          <t>泰康品质生活混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>88.48</t>
+          <t>1.13</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F11" t="n">
-        <v>5</v>
+          <t>84.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0414</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="12">
@@ -1350,26 +1658,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005885</t>
+          <t>002360</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>金鹰信息产业股票C</t>
+          <t>前海开源清洁能源主题精选混合C</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>88.48</t>
+          <t>1.15</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>4.24</t>
-        </is>
-      </c>
-      <c r="F12" t="n">
-        <v>5</v>
+          <t>37.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0178</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1693,4 +1694,2110 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.86</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7695</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>102.07</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4191</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>27.56</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.45</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0642</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>003378</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>泰康策略优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>26.03</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.22</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.7128</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>28.57</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.03</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.66</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.6171</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>33.44</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.83</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.4279</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.38</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9728</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>29.70</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9207</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>14.02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>85.97</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.9113</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>15.54</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6340</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.89</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6284</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.11</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5752</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21.26</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>78.82</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5060</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002148</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国寿安保稳惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>13.16</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>82.27</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.4896</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010874</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>8.98</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4894</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>12.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.47</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.3665</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3546</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.75</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.29</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.99</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3491</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3153</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>003956</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>南方现代教育股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.73</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.77</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2971</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>210003</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>金鹰行业优势混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>7.43</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2905</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>7.50</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2805</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2443</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>010875</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>泰康品质生活混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>88.27</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.45</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1908</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>10.11</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>95.03</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1901</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>43.71</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>005014</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.78</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1712</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1711</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>168002</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保策略精选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>90.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1709</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1515</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>84.78</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>240017</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.99</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1241</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0804</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>501097</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国寿安保科技创新3年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.16</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>38.41</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0782</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.93</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0675</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.94</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0642</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.89</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.74</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011155</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0465</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.55</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>0.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0410</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0368</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>25.75</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0345</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>78.62</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0297</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>519115</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>浦银安盛红利精选混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.92</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>92.30</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0293</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>005815</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>农银汇理睿选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>92.31</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0288</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>005015</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>泰康景泰回报混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.08</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>29.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>008093</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>同泰慧选混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001363</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长城久惠灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002543</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>011156</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>金鹰责任投资混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>61.18</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>9.30</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>008094</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>同泰慧选混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>002544</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长城久益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.93</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.85</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
+      <c r="H55" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -3800,4 +3801,2302 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H60"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>166.29</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.88</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.87</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.4354</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>65.74</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.63</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.3462</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>134.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>3.2095</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>148.10</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.2956</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>43.87</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.9566</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006299</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>70.12</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8932</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>17.25</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.4318</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.84</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9820</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>007193</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>恒越核心精选混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>31.47</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8497</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.00</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.8136</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>49.92</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.7538</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005299</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>19.08</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.7060</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>010622</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>24.55</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.6849</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.58</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5100</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.30</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5005</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>24.18</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>77.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4836</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>31.51</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.54</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4474</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>80.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3774</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.64</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3722</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>6.70</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>82.58</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3705</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3522</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3495</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005300</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>万家成长优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.08</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2990</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>81.80</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2815</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.22</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.85</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2457</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>11.23</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.04</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2257</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010623</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>恒越成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.42</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>87.85</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2070</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>75.20</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2021</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>11.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.01</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1634</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>001449</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华商双驱优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.94</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1616</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006233</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1173</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>6.90</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1070</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>93.15</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>7.75</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1038</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0824</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>东吴新经济混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.81</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>5.95</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0791</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>1.06</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.75</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0717</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>501001</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>财通多策略精选混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>81.91</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0546</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010403</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华商景气优选混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.49</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>006234</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>万家汽车新趋势混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.06</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001242</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数A</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001243</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时中证淘金大数据100指数I</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.01</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>93.10</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.21</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0353</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001244</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0331</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002289</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华商改革创新股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.40</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>86.55</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.29</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0182</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0163</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>519099</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>新华灵活主题混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0140</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>85.77</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>320016</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>诺安多策略混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>75.94</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.65</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>006104</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华泰柏瑞量化智慧灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>89.35</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>008300</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0049</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>93.57</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.97</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0032</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010921</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>民生加银润利混合</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>27.24</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>008301</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>人保量化锐进混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>93.67</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6099,4 +6100,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>59</v>
+      </c>
+      <c r="D2" t="n">
+        <v>32.19</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>54</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>11</v>
+      </c>
+      <c r="D4" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>19</v>
+      </c>
+      <c r="D5" t="n">
+        <v>4.95</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6108,7 +6109,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6119,17 +6120,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6139,14 +6160,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>59</v>
-      </c>
-      <c r="D2" t="n">
-        <v>32.19</v>
+          <t>005939</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>125.87</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.7956</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -6155,14 +6198,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>54</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.83</v>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>175.25</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.8566</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -6171,14 +6236,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>11</v>
-      </c>
-      <c r="D4" t="n">
-        <v>2.81</v>
+          <t>005940</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银瑞信新能源汽车主题混合C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>61.63</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.3481</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -6187,13 +6274,2203 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>56.41</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.3015</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>174.77</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.30</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.2720</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>21.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.3243</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>46.87</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.9749</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>12.73</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.7511</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>48.22</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.51</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.55</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.7474</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>10.22</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.09</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.20</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.6336</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>14.55</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.28</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.5936</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>14.48</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>91.85</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5864</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>20.57</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5204</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.50</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>78.14</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5102</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.4533</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>8.21</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4294</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>10.19</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.3271</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.79</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>5.11</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.3245</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>4.67</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3036</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010790</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>14.97</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.2829</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>7.69</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2499</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.75</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>94.49</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2444</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>12.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.50</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2228</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011503</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信智能生活混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.91</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2181</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.08</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.74</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2040</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1782</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1697</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1523</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1488</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>7.90</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1351</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.12</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>5.88</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1211</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>001569</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>泰信国策驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1094</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.57</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>81.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0926</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010791</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>海富通均衡甄选混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>33.27</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0756</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0743</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0607</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.50</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0494</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>99.02</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0469</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0448</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>160722</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>嘉实惠泽灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0418</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001148</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0392</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0391</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001724</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>申万菱信多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>28.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0328</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>008719</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>德邦安顺混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0282</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.29</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>92.77</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.85</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0228</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.20</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.66</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>85.58</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>99.89</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0160</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>167702</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0138</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>167703</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>德邦量化优选股票(LOF)C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>29.67</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>24.14</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.97</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>008720</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>德邦安顺混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>24.93</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0028</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>33.27</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>26.33</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>59</v>
+      </c>
+      <c r="D3" t="n">
+        <v>32.19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>54</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>11</v>
+      </c>
+      <c r="D5" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>19</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>4.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -8369,7 +8370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -8380,17 +8381,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -8400,14 +8421,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>26.33</v>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>258.16</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.53</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>8.6225</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="3">
@@ -8416,14 +8459,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>59</v>
-      </c>
-      <c r="D3" t="n">
-        <v>32.19</v>
+          <t>001410</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>信达澳银新能源产业股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>140.41</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>92.06</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>3.0048</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -8432,14 +8497,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>54</v>
-      </c>
-      <c r="D4" t="n">
-        <v>22.83</v>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>70.75</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.8158</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -8448,14 +8535,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>11</v>
-      </c>
-      <c r="D5" t="n">
-        <v>2.81</v>
+          <t>009147</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>建信新能源行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>54.78</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.68</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.0159</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="6">
@@ -8464,13 +8573,3853 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>18.35</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.1194</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>213001</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>17.98</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.0806</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011188</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>35.73</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.0255</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>011704</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>21.77</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.9405</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>012608</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信达澳银领先智选混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.78</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>90.57</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>2.12</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.8221</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010363</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>信达澳银匠心臻选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.40</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.7510</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000924</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>10.53</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.6097</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>10.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.38</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.5932</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>202027</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>15.67</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.5876</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>8.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>68.54</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.5867</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>040007</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安中小盘成长混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>83.32</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5799</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006257</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>信达澳银先进智造股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>21.53</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.84</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.54</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.5469</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>8.95</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>94.18</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.5460</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>012098</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华夏成长机会一年持有期混合型证券投资基金</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>17.42</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>67.27</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4878</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011104</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>光大保德信智能汽车主题股票</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>10.77</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>90.06</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.4125</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>530001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信恒久价值混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>11.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.4075</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>013395</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>9.46</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3973</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005037</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>14.28</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3713</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005352</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>6.40</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3418</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.69</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3178</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>7.64</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>001468</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>广发改革先锋灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>76.65</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3079</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>162720</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>广发创业板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>8.96</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>93.33</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2939</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.76</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>5.72</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2917</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>007484</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>信达澳银核心科技混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>16.02</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>80.50</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2707</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011223</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>信达澳银星奕混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>9.21</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.87</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2643</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>013960</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>13.29</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2445</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>87.68</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>4.65</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2432</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000592</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>建信改革红利股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>9.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.05</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2382</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>009511</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>信达澳银研究优选混合</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>9.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.12</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>2.49</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2343</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>011705</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>东方阿尔法产业先锋混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>5.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>92.91</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2316</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>006051</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2243</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>013396</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>华夏新能源车龙头混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.23</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.43</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.20</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2197</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>008370</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>国泰研究精选两年持有期混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2179</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000309</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>大摩品质生活精选股票</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2071</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001543</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1891</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>008177</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>建信高股息主题股票</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>5.58</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1786</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>001858</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>建信鑫利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>85.72</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1785</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>009804</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>国泰研究优势混合</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>4.14</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>90.91</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1673</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.08</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>82.09</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.75</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1463</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>94.42</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1458</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009419</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1322</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>009437</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1186</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>68.54</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>005353</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>鹏扬景泰成长混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0974</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>005038</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>银华新能源新材料量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>290004</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>泰信优质生活混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.39</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0952</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>009432</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0951</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>011717</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0841</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0794</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>005207</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>南方高端装备灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>3.75</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0772</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>89.13</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>011736</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>35.86</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>159804</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>国寿安保国证创业板中盘精选88ETF</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>98.79</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0596</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>013961</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>万家新机遇成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>49.51</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>1.84</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0576</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>82.01</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0572</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>008180</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>同泰慧利混合A</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.40</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>001808</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>银华互联网主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.17</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.19</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>4.41</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0516</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006167</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合A</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.34</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0507</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>005472</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.05</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>41.57</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>009557</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0467</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>007581</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>宝盈鸿利收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>90.37</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>007579</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>宝盈先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.79</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>006052</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>鹏扬核心价值灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>6.03</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>233001</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>大摩基础行业混合</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>78.96</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001229</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0317</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>006969</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>圆信永丰高端制造混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>86.60</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0309</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>85.41</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>008324</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合A</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0259</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>004332</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>恒生前海沪港深新兴产业精选混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>80.98</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>005826</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>华夏潜龙精选股票</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>87.98</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>008050</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>同泰慧择混合A</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0191</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>009433</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>德邦科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>5.17</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0186</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>009438</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>信达澳银科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>94.43</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0179</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>006168</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>德邦乐享生活混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>88.13</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0159</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>002106</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>德邦福鑫灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>83.47</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>007578</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>宝盈新锐灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>93.26</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>5.89</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0118</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>011737</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>35.86</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0114</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>81.51</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>008325</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>宝盈祥利稳健配置混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>36.53</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0102</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011718</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>浦银安盛均衡优选6个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>65.33</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0101</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.49</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>008181</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>同泰慧利混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.38</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0076</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>27.54</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>1.62</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0068</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>41.57</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>005473</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>富国价值驱动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>77.87</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.49</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>008051</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>同泰慧择混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>87.51</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0044</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>001659</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>富安达新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>90.52</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>87.40</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>001978</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>泰信互联网+主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.34</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>009420</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>21.70</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>1.50</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>79.01</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>010505</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>申万菱信创业板量化精选股票C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>102</v>
+      </c>
+      <c r="D2" t="n">
+        <v>36.06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>26.33</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>59</v>
+      </c>
+      <c r="D4" t="n">
+        <v>32.19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>54</v>
+      </c>
+      <c r="D5" t="n">
+        <v>22.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>11</v>
+      </c>
+      <c r="D6" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>19</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>4.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -12302,7 +12303,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -12313,17 +12314,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -12333,14 +12354,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>102</v>
-      </c>
-      <c r="D2" t="n">
-        <v>36.06</v>
+          <t>000209</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>64.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.7499</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -12349,14 +12392,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>58</v>
-      </c>
-      <c r="D3" t="n">
-        <v>26.33</v>
+          <t>010587</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>19.30</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.0364</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -12365,14 +12430,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>59</v>
-      </c>
-      <c r="D4" t="n">
-        <v>32.19</v>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏行业混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>18.28</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.36</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.94</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.7202</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -12381,14 +12468,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>54</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22.83</v>
+          <t>001278</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.54</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5165</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -12397,14 +12506,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>11</v>
-      </c>
-      <c r="D6" t="n">
-        <v>2.81</v>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>6.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4911</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="7">
@@ -12413,13 +12544,1963 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>010588</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>鹏扬先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.49</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.4559</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>5.74</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.4202</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.38</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>87.27</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>8.09</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3543</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>519110</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3191</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519170</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>9.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2959</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>550009</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>信诚中小盘混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.75</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2116</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009419</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014062</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>9.43</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1584</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>233006</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>大摩领先优势混合</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.35</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>006398</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>4.95</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1505</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011142</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.51</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1200</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>013526</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>信诚新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1141</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014063</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>景顺长城专精特新量化优选股票C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>6.38</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1072</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011736</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.76</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0916</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>519113</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>浦银安盛精致生活混合</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.27</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>3.66</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0867</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009568</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0854</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>519120</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.29</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0831</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>005977</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>1.74</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0800</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>002360</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>前海开源清洁能源主题精选混合C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>71.09</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0799</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>91.34</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0608</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.93</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.39</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0560</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011143</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>创金合信新材料新能源股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.72</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0529</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>005933</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0439</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009569</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浙商智多宝稳健一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.63</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>25.02</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.66</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>008336</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>007137</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0247</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>002634</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005978</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>中信保诚至兴灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>91.66</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011729</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>工银聚享混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>004194</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011737</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>宝盈祥庆9个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>42.88</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.32</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0166</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>007138</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>鹏扬元合量化大盘优选股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>94.09</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0142</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011886</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.43</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>006399</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>宝盈祥颐定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>34.49</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>3.04</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>519134</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>海富通富祥混合</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>23.23</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>004195</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>招商中证1000指数增强C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.74</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.18</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>005934</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>新疆前海联合先进制造灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>008337</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>宝盈祥裕增强回报混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>42.55</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012919</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>华宝未来主导产业灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>90.08</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0042</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>011887</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>弘毅远方高端制造混合型发起式证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.90</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0039</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>009420</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>宝盈祥明一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>30.41</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014003</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>浦银安盛增长动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.55</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>003797</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>003798</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>华安新瑞利灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>22.79</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014061</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>浦银安盛新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>92.16</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>011730</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>工银聚享混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>28.52</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="G52" t="n">
+        <v>0</v>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>960031</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合H</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014011</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浦银安盛价值成长混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>91.52</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>53</v>
+      </c>
+      <c r="D2" t="n">
+        <v>9.58</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>102</v>
+      </c>
+      <c r="D3" t="n">
+        <v>36.06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>58</v>
+      </c>
+      <c r="D4" t="n">
+        <v>26.33</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>59</v>
+      </c>
+      <c r="D5" t="n">
+        <v>32.19</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>54</v>
+      </c>
+      <c r="D6" t="n">
+        <v>22.83</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>11</v>
+      </c>
+      <c r="D7" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>19</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>4.95</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>9.58</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="D3" t="n">
-        <v>36.06</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D4" t="n">
-        <v>26.33</v>
+        <v>36.06</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>32.19</v>
+        <v>26.33</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D6" t="n">
-        <v>22.83</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D7" t="n">
-        <v>2.81</v>
+        <v>22.83</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>11</v>
+      </c>
+      <c r="D8" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>19</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>4.95</v>
       </c>
     </row>
@@ -600,6 +617,1388 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>107.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0992</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5960</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5216</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>673090</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013262</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009409</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009410</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>016616</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016181</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -2663,7 +4062,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6595,7 +7994,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8855,7 +10254,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11153,7 +12552,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13259,7 +14658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13733,7 +15132,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
+++ b/数据整理/stocks/A股/创业板/300035-中科电气.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
         <v>35</v>
       </c>
       <c r="D2" t="n">
-        <v>4.95</v>
+        <v>7.36</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>53</v>
+        <v>35</v>
       </c>
       <c r="D3" t="n">
-        <v>9.58</v>
+        <v>4.95</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>102</v>
+        <v>53</v>
       </c>
       <c r="D4" t="n">
-        <v>36.06</v>
+        <v>9.58</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>58</v>
+        <v>102</v>
       </c>
       <c r="D5" t="n">
-        <v>26.33</v>
+        <v>36.06</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D6" t="n">
-        <v>32.19</v>
+        <v>26.33</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="D7" t="n">
-        <v>22.83</v>
+        <v>32.19</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11</v>
+        <v>54</v>
       </c>
       <c r="D8" t="n">
-        <v>2.81</v>
+        <v>22.83</v>
       </c>
     </row>
     <row r="9">
@@ -601,18 +602,810 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>11</v>
+      </c>
+      <c r="D9" t="n">
+        <v>2.81</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>19</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>4.95</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H20"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>519133</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>海富通改革驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>55.61</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.82</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>2.57</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4292</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003853</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.7639</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519003</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>海富通收益增长混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>17.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>78.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4274</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>005669</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>前海开源公用事业行业股票</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.46</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.89</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3819</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>519918</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华夏兴和混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.60</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3732</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>006972</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>14.65</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3677</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009490</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>泰康科技创新一年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>95.05</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>7.53</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2944</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>005885</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>金鹰信息产业股票C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>86.07</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.39</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.1760</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010130</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>10.29</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1225</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005823</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>泰康颐享混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>7.34</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1174</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>004265</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>金鹰民丰回报定期开放混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>6.65</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>26.33</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1164</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002934</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1058</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000689</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>前海开源新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.32</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.93</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1015</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>002935</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰康恒泰回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.33</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.88</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>005824</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰康颐享混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>29.84</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0510</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007735</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>金鹰民安回报一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>36.57</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0354</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>005855</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>005856</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中科沃土沃瑞灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010131</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>24.81</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -673,36 +1466,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002363</t>
+          <t>017766</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>华安安康灵活配置混合A</t>
+          <t>华夏兴和混合C</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>107.76</t>
+          <t>35.60</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>21.95</t>
+          <t>91.76</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>1.0992</t>
+          <t>1.7017</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3">
@@ -711,36 +1504,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>008381</t>
+          <t>160311</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>前海开源新兴产业混合A</t>
+          <t>华夏蓝筹混合（LOF）A</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>7.73</t>
+          <t>25.44</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.5960</t>
+          <t>1.3381</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -749,36 +1542,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>160314</t>
+          <t>002363</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>华夏行业混合（LOF）</t>
+          <t>华安安康灵活配置混合A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>16.30</t>
+          <t>87.42</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>90.55</t>
+          <t>23.24</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.5216</t>
+          <t>1.1539</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -787,36 +1580,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>160212</t>
+          <t>160314</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>国泰估值优势混合（LOF）A</t>
+          <t>华夏行业混合（LOF）</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>9.14</t>
+          <t>15.54</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>90.33</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>3.26</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>0.5009</t>
+          <t>0.5066</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6">
@@ -825,32 +1618,32 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>010149</t>
+          <t>008381</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>浙商智选经济动能混合C</t>
+          <t>前海开源新兴产业混合A</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>4.37</t>
+          <t>6.29</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>84.36</t>
+          <t>90.12</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>0.3186</t>
+          <t>0.4875</t>
         </is>
       </c>
       <c r="H6" t="n">
@@ -873,26 +1666,26 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>27.33</t>
+          <t>23.84</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>21.95</t>
+          <t>23.24</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>1.02</t>
+          <t>1.32</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>0.2788</t>
+          <t>0.3147</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>6</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -911,26 +1704,26 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>13.36</t>
+          <t>13.05</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>55.44</t>
+          <t>53.71</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>0.2405</t>
+          <t>0.2545</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="9">
@@ -939,36 +1732,36 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>550001</t>
+          <t>002144</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>信诚四季红混合</t>
+          <t>华安新优选灵活配置混合C</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>15.28</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>83.57</t>
+          <t>23.65</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>0.2285</t>
+          <t>0.1956</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="10">
@@ -977,32 +1770,32 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>002144</t>
+          <t>004925</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合C</t>
+          <t>长信低碳环保行业量化股票A</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>19.79</t>
+          <t>5.55</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>22.13</t>
+          <t>93.25</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>0.1979</t>
+          <t>0.1787</t>
         </is>
       </c>
       <c r="H10" t="n">
@@ -1015,36 +1808,36 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>011739</t>
+          <t>014729</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>华安兴安优选一年持有期混合C</t>
+          <t>前海开源新兴产业混合C</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>8.27</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>55.44</t>
+          <t>90.12</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>1.80</t>
+          <t>7.75</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>0.1489</t>
+          <t>0.1596</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12">
@@ -1053,36 +1846,36 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>005695</t>
+          <t>014062</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>华安睿明两年定期开放灵活配置混合A</t>
+          <t>景顺长城专精特新量化优选股票A</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>4.27</t>
+          <t>7.66</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>0.1238</t>
+          <t>0.1578</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>10</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13">
@@ -1091,36 +1884,36 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>001312</t>
+          <t>011739</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>华安新优选灵活配置混合A</t>
+          <t>华安兴安优选一年持有期混合C</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>9.83</t>
+          <t>8.07</t>
         </is>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>22.13</t>
+          <t>53.71</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>1.00</t>
+          <t>1.95</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>0.0983</t>
+          <t>0.1574</t>
         </is>
       </c>
       <c r="H13" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="14">
@@ -1129,36 +1922,36 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>550003</t>
+          <t>005695</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>中信保诚盛世蓝筹混合</t>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>2.94</t>
+          <t>4.03</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>91.20</t>
+          <t>98.12</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>2.92</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>0.0858</t>
+          <t>0.1439</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="15">
@@ -1167,36 +1960,36 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>011390</t>
+          <t>001312</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>华安添祥6个月持有期混合A</t>
+          <t>华安新优选灵活配置混合A</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>6.67</t>
+          <t>9.10</t>
         </is>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>33.77</t>
+          <t>23.65</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>1.28</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>0.0754</t>
+          <t>0.1165</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -1205,36 +1998,36 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>011446</t>
+          <t>519951</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>长江新能源产业混合A</t>
+          <t>长信利泰灵活配置混合A</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>1.82</t>
+          <t>2.89</t>
         </is>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>78.35</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>0.0661</t>
+          <t>0.0801</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17">
@@ -1243,32 +2036,32 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>011284</t>
+          <t>014063</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>中信保诚龙腾精选混合</t>
+          <t>景顺长城专精特新量化优选股票C</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>1.12</t>
+          <t>3.88</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>84.65</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>4.79</t>
+          <t>2.06</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>0.0536</t>
+          <t>0.0799</t>
         </is>
       </c>
       <c r="H17" t="n">
@@ -1281,36 +2074,36 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>010148</t>
+          <t>011390</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>浙商智选经济动能混合A</t>
+          <t>华安添祥6个月持有期混合A</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0.65</t>
+          <t>6.21</t>
         </is>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>84.36</t>
+          <t>32.32</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>7.29</t>
+          <t>1.14</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>0.0474</t>
+          <t>0.0708</t>
         </is>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
     </row>
     <row r="19">
@@ -1319,36 +2112,36 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>014729</t>
+          <t>011446</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>前海开源新兴产业混合C</t>
+          <t>长江新能源产业混合A</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>0.60</t>
+          <t>1.79</t>
         </is>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>93.97</t>
+          <t>85.35</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>7.71</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>0.0463</t>
+          <t>0.0650</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>3</v>
+        <v>9</v>
       </c>
     </row>
     <row r="20">
@@ -1357,36 +2150,36 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>400007</t>
+          <t>015320</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>东方策略成长混合</t>
+          <t>长江新兴产业混合A</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>1.52</t>
+          <t>1.60</t>
         </is>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>87.31</t>
+          <t>77.09</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>2.51</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>0.0382</t>
+          <t>0.0486</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="21">
@@ -1395,36 +2188,36 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>673090</t>
+          <t>009400</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>西部利得个股精选股票A</t>
+          <t>华安添瑞6个月持有期混合A</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>1.25</t>
+          <t>7.08</t>
         </is>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>20.33</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>0.0290</t>
+          <t>0.0474</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="22">
@@ -1433,36 +2226,36 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>165512</t>
+          <t>013151</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>信诚新机遇混合（LOF）</t>
+          <t>长信低碳环保行业量化股票C</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>0.84</t>
+          <t>0.94</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>91.25</t>
+          <t>93.25</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2.95</t>
+          <t>3.22</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>0.0248</t>
+          <t>0.0303</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -1471,36 +2264,36 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>006209</t>
+          <t>011447</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>中信保诚新蓝筹灵活配置混合</t>
+          <t>长江新能源产业混合C</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>0.52</t>
+          <t>0.48</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>80.11</t>
+          <t>85.35</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>4.53</t>
+          <t>3.63</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>0.0236</t>
+          <t>0.0174</t>
         </is>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>9</v>
       </c>
     </row>
     <row r="24">
@@ -1509,36 +2302,36 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>013262</t>
+          <t>519969</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>西部利得个股精选股票C</t>
+          <t>长信新利灵活配置混合</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>0.95</t>
+          <t>0.49</t>
         </is>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>86.69</t>
+          <t>91.04</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>2.32</t>
+          <t>2.59</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>0.0220</t>
+          <t>0.0127</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="25">
@@ -1547,36 +2340,36 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>001681</t>
+          <t>007863</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>新华积极价值灵活配置混合</t>
+          <t>长信利泰灵活配置混合C</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>0.51</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>75.96</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>4.13</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>0.0211</t>
+          <t>0.0125</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
     </row>
     <row r="26">
@@ -1585,12 +2378,12 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>011447</t>
+          <t>003646</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>长江新能源产业混合C</t>
+          <t>创金合信中证1000指数增强A</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1600,21 +2393,21 @@
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>78.35</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>3.63</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>0.0189</t>
+          <t>0.0069</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="27">
@@ -1623,36 +2416,36 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>000788</t>
+          <t>009401</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>前海开源中国成长灵活配置混合</t>
+          <t>华安添瑞6个月持有期混合C</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>0.46</t>
+          <t>0.99</t>
         </is>
       </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>88.66</t>
+          <t>20.33</t>
         </is>
       </c>
       <c r="F27" t="inlineStr">
         <is>
-          <t>2.67</t>
+          <t>0.67</t>
         </is>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>0.0123</t>
+          <t>0.0066</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="28">
@@ -1661,36 +2454,36 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>519969</t>
+          <t>009409</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>长信新利灵活配置混合</t>
+          <t>华安添福18个月持有期混合A</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>0.49</t>
+          <t>0.53</t>
         </is>
       </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>89.30</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="F28" t="inlineStr">
         <is>
-          <t>2.39</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>0.0117</t>
+          <t>0.0062</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29">
@@ -1699,36 +2492,36 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>002149</t>
+          <t>003647</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>嘉实新优选灵活配置混合</t>
+          <t>创金合信中证1000指数增强C</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>0.18</t>
+          <t>0.43</t>
         </is>
       </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>91.79</t>
+          <t>92.80</t>
         </is>
       </c>
       <c r="F29" t="inlineStr">
         <is>
-          <t>4.77</t>
+          <t>1.33</t>
         </is>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>0.0086</t>
+          <t>0.0057</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -1737,36 +2530,36 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>009409</t>
+          <t>015321</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>华安添福18个月持有期混合A</t>
+          <t>长江新兴产业混合C</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>0.72</t>
+          <t>0.09</t>
         </is>
       </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>77.09</t>
         </is>
       </c>
       <c r="F30" t="inlineStr">
         <is>
-          <t>0.98</t>
+          <t>3.04</t>
         </is>
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>0.0071</t>
+          <t>0.0027</t>
         </is>
       </c>
       <c r="H30" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="31">
@@ -1775,36 +2568,36 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>005105</t>
+          <t>005696</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>富荣福康混合C</t>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.06</t>
         </is>
       </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>98.12</t>
         </is>
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>3.57</t>
         </is>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>0.0027</t>
+          <t>0.0021</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
     </row>
     <row r="32">
@@ -1813,36 +2606,36 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>005696</t>
+          <t>015950</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>华安睿明两年定期开放灵活配置混合C</t>
+          <t>华夏蓝筹混合（LOF）C</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>0.07</t>
+          <t>0.03</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>93.55</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>2.90</t>
+          <t>5.26</t>
         </is>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>0.0020</t>
+          <t>0.0016</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="33">
@@ -1851,36 +2644,36 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>005104</t>
+          <t>009410</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>富荣福康混合A</t>
+          <t>华安添福18个月持有期混合C</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>0.03</t>
+          <t>0.07</t>
         </is>
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>91.00</t>
+          <t>23.50</t>
         </is>
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>3.82</t>
+          <t>1.17</t>
         </is>
       </c>
       <c r="G33" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0008</t>
         </is>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="34">
@@ -1889,36 +2682,34 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>009410</t>
+          <t>016181</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>华安添福18个月持有期混合C</t>
+          <t>华安添祥6个月持有期混合C</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>0.09</t>
+          <t>0.00</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>21.56</t>
+          <t>32.32</t>
         </is>
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>0.98</t>
-        </is>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>0.0009</t>
-        </is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="35">
@@ -1927,12 +2718,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>016616</t>
+          <t>519918</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>国泰估值优势混合（LOF）C</t>
+          <t>华夏兴和混合A</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1942,19 +2733,19 @@
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>94.29</t>
+          <t>91.76</t>
         </is>
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>5.48</t>
+          <t>4.78</t>
         </is>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="36">
@@ -1963,12 +2754,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>016181</t>
+          <t>008071</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>华安添祥6个月持有期混合C</t>
+          <t>长信利泰灵活配置混合E</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1978,19 +2769,19 @@
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>33.77</t>
+          <t>92.61</t>
         </is>
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>1.13</t>
+          <t>2.77</t>
         </is>
       </c>
       <c r="G36" t="n">
         <v>0</v>
       </c>
       <c r="H36" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -1999,6 +2790,1388 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H36"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>002363</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>107.76</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0992</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>008381</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5960</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>160314</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>华夏行业混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.30</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>90.55</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.5216</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>160212</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.14</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.5009</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010149</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3186</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>002364</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>华安安康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>27.33</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>21.95</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2788</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>011738</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>13.36</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2405</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>550001</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>信诚四季红混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>83.57</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002144</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>19.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1979</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011739</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华安兴安优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>8.27</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>55.44</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.80</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1489</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>005695</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>4.27</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1238</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001312</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华安新优选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>9.83</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>22.13</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>550003</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>中信保诚盛世蓝筹混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.94</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.20</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.92</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0858</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>011390</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.67</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0754</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011446</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0661</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011284</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信保诚龙腾精选混合</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0536</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>010148</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>浙商智选经济动能混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>84.36</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.29</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0474</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>014729</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>前海开源新兴产业混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.97</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>7.71</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0463</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>400007</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>东方策略成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0382</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>673090</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0290</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>165512</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>信诚新机遇混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>006209</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中信保诚新蓝筹灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>80.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013262</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>西部利得个股精选股票C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>86.69</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0220</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001681</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>新华积极价值灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.51</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>75.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0211</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011447</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长江新能源产业混合C</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>000788</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源中国成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0123</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>519969</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长信新利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.30</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0117</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>002149</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>嘉实新优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009409</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>005105</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>富荣福康混合C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005696</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>华安睿明两年定期开放灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005104</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富荣福康混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009410</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华安添福18个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21.56</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>016616</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>国泰估值优势混合（LOF）C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.29</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>5.48</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
+        <v>0</v>
+      </c>
+      <c r="H35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>016181</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华安添祥6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>33.77</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
+        <v>0</v>
+      </c>
+      <c r="H36" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4062,7 +6235,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -7994,7 +10167,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10254,7 +12427,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -12552,7 +14725,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14658,7 +16831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15130,780 +17303,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H20"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>519133</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>海富通改革驱动灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>55.61</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>91.82</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>2.57</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>1.4292</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003853</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>金鹰信息产业股票A</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>17.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.7639</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>519003</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>海富通收益增长混合</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>17.81</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>78.55</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>2.40</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.4274</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>005669</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>前海开源公用事业行业股票</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.46</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>7.89</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.3819</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>519918</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华夏兴和混合</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>7.71</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>90.60</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>4.84</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.3732</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>006972</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合A</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>14.65</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>36.57</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.3677</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>009490</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>泰康科技创新一年定期开放混合</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>3.91</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>95.05</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>7.53</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.2944</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>005885</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>金鹰信息产业股票C</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>4.01</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>86.07</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>4.39</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.1760</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>010130</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>10.29</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>24.81</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.1225</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>005823</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>泰康颐享混合A</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>7.34</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.1174</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>004265</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>金鹰民丰回报定期开放混合</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>6.65</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>26.33</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.1164</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>002934</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>泰康恒泰回报灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>5.54</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>29.88</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.1058</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>000689</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>前海开源新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>1.28</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>94.32</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>7.93</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>0.1015</t>
-        </is>
-      </c>
-      <c r="H14" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>002935</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>泰康恒泰回报灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>3.33</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>29.88</t>
-        </is>
-      </c>
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>0.0636</t>
-        </is>
-      </c>
-      <c r="H15" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>005824</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>泰康颐享混合C</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>3.19</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>29.84</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>1.60</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>0.0510</t>
-        </is>
-      </c>
-      <c r="H16" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>007735</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>金鹰民安回报一年定期开放混合C</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>36.57</t>
-        </is>
-      </c>
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>2.51</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>0.0354</t>
-        </is>
-      </c>
-      <c r="H17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>005855</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合A</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>0.63</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>0.0218</t>
-        </is>
-      </c>
-      <c r="H18" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>005856</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>中科沃土沃瑞灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>0.15</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>92.93</t>
-        </is>
-      </c>
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>3.46</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H19" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="n">
-        <v>18</v>
-      </c>
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>010131</t>
-        </is>
-      </c>
-      <c r="C20" t="inlineStr">
-        <is>
-          <t>海富通惠增多策略一年定期开放灵活配置混合C</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>0.00</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>24.81</t>
-        </is>
-      </c>
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>1.19</t>
-        </is>
-      </c>
-      <c r="G20" t="n">
-        <v>0</v>
-      </c>
-      <c r="H20" t="n">
-        <v>5</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>